--- a/pl_f.xlsx
+++ b/pl_f.xlsx
@@ -26,29 +26,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>PACKED IN 168 PACKAGES ONLY.</t>
-  </si>
-  <si>
-    <t>NET WEIGHT: 3156.66  KGS</t>
-  </si>
-  <si>
-    <t>GROSS WEIGHT:  3374.84 KGS</t>
-  </si>
-  <si>
-    <t>TOTAL MEASUREMENT:18.32 CBM</t>
-  </si>
-  <si>
-    <t>COUNTRY OF ORIGIN: CHINA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -56,21 +36,14 @@
     <numFmt numFmtId="176" formatCode="[$-10804]0"/>
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -426,92 +399,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,243 +525,198 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,67 +1094,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
